--- a/excel/402 Congiuntivo - Passato.xlsx
+++ b/excel/402 Congiuntivo - Passato.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Carol\0-Coding\quiz-mini-springboot\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="267">
   <si>
     <t>类别名称</t>
   </si>
@@ -687,6 +687,188 @@
   </si>
   <si>
     <t>sia dipesa/dipeso</t>
+  </si>
+  <si>
+    <t>Ho voluto dirti una cosa.</t>
+  </si>
+  <si>
+    <t>Non ti sei accorto che il gatto è uscito?</t>
+  </si>
+  <si>
+    <t>Sono corsa qui appena ho saputo dell'incidente.</t>
+  </si>
+  <si>
+    <t>Hanno diviso l'appartamento.</t>
+  </si>
+  <si>
+    <t>Isei siamo state al cinema.</t>
+  </si>
+  <si>
+    <t>Suo nonno è morto tre anni fa.</t>
+  </si>
+  <si>
+    <t>Dante è nato a Firenze.</t>
+  </si>
+  <si>
+    <t>Aldo ha offeso Beppe.</t>
+  </si>
+  <si>
+    <t>Gigi ha offerto il pranzo.</t>
+  </si>
+  <si>
+    <t>Ho perso due milioni a cate.</t>
+  </si>
+  <si>
+    <t>Questa estate avete preso tanto sole.</t>
+  </si>
+  <si>
+    <t>Sei rimasto in città a Ferragosto?</t>
+  </si>
+  <si>
+    <t>Non ha risposto alla mia domanda, Signor Rossi.</t>
+  </si>
+  <si>
+    <t>Hanno rotto il computer.</t>
+  </si>
+  <si>
+    <t>Alla fine ho scelto la gonna blu.</t>
+  </si>
+  <si>
+    <t>Siamo scese al pianterreno.</t>
+  </si>
+  <si>
+    <t>Abbiamo scritto a casa.</t>
+  </si>
+  <si>
+    <t>Hanno spento tutte le luci.</t>
+  </si>
+  <si>
+    <t>Che è successo?</t>
+  </si>
+  <si>
+    <t>Hanno tradotto il libro di Queneau.</t>
+  </si>
+  <si>
+    <t>Hai visto l'ultimo film di Benigni?</t>
+  </si>
+  <si>
+    <t>Non è venuto quasi nessuno alla festa.</t>
+  </si>
+  <si>
+    <t>La Franca ha vinto i Mondiali del 1998.</t>
+  </si>
+  <si>
+    <t>Ho vissuto due anni in Germania</t>
+  </si>
+  <si>
+    <t>cogliere i fiori 采花</t>
+  </si>
+  <si>
+    <t>cuocere a fuoco lento文火煮</t>
+  </si>
+  <si>
+    <t>Siamo giunte in tempo alla stazione.我们及时到了火车站。</t>
+  </si>
+  <si>
+    <t>La maestra riunì le alunne attorno a lei. 教师把学生聚集在自己的周围。</t>
+  </si>
+  <si>
+    <t>Durante la notte tutto tace.夜间, 万籁俱寂。</t>
+  </si>
+  <si>
+    <t>è caduto dal tetto. 她从屋顶上摔下来。</t>
+  </si>
+  <si>
+    <t>Combattiamo per il grande ideale del comunismo. 我们为共产主义伟大理想而奋斗。</t>
+  </si>
+  <si>
+    <t>Non voglio mettermi a discutere con voi. 我不愿意和你们争论。</t>
+  </si>
+  <si>
+    <t>Quest’albergo gode di un magnifico panorama.从这个旅馆可以看到优美的风景。</t>
+  </si>
+  <si>
+    <t>Ho ottenuto un grande successo. 我已取得一个伟大的成就。</t>
+  </si>
+  <si>
+    <t>riempire una lacuna 填补空白</t>
+  </si>
+  <si>
+    <t>stringere le labbra紧闭嘴唇</t>
+  </si>
+  <si>
+    <t>appendere le bandiere rosse alle pareti 把红旗挂在墙上</t>
+  </si>
+  <si>
+    <t>tendere una corda 拉一根绳子</t>
+  </si>
+  <si>
+    <t>Cominciò a dipingere due anni fa. 他两年前开始绘画。</t>
+  </si>
+  <si>
+    <t>E’ stato eletto caporeparto dagli opera. 他被工人选为车间主任。</t>
+  </si>
+  <si>
+    <t>Fingiamo che non sia ancora arrivato. 我们设想他还没有到。</t>
+  </si>
+  <si>
+    <t>E’scoppiato un pneumatico. 一个轮胎爆了。</t>
+  </si>
+  <si>
+    <t>Il ladro è scappato. 小偷跑了。</t>
+  </si>
+  <si>
+    <t>Mi ha punto una vespa.黄蜂蜇了我一下。</t>
+  </si>
+  <si>
+    <t>Ha molto sofferto nella sua vita. 她一生中受到很多痛苦。</t>
+  </si>
+  <si>
+    <t>La folla mi spinse lontano dall’ingresso.人群把我从门口挤到老远的地方。</t>
+  </si>
+  <si>
+    <t>L’inverno è finito.冬天过去了。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">L’amore ti </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ha reso</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cieco.爱情迷住了你的眼。</t>
+    </r>
+  </si>
+  <si>
+    <t>Gli è accaduta una disgrazia. 他遭到不幸。</t>
+  </si>
+  <si>
+    <t>Il castello esiste ancora. 那个城堡还在。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dipende da te andare o no. 去不去由你。 </t>
   </si>
 </sst>
 </file>
@@ -1052,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1095,6 +1277,9 @@
       <c r="D2" t="s">
         <v>128</v>
       </c>
+      <c r="E2" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1109,6 +1294,9 @@
       <c r="D3" t="s">
         <v>195</v>
       </c>
+      <c r="E3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1123,6 +1311,9 @@
       <c r="D4" t="s">
         <v>199</v>
       </c>
+      <c r="E4" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1137,6 +1328,9 @@
       <c r="D5" t="s">
         <v>129</v>
       </c>
+      <c r="E5" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1151,6 +1345,9 @@
       <c r="D6" t="s">
         <v>200</v>
       </c>
+      <c r="E6" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1165,6 +1362,9 @@
       <c r="D7" t="s">
         <v>207</v>
       </c>
+      <c r="E7" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1179,6 +1379,9 @@
       <c r="D8" t="s">
         <v>208</v>
       </c>
+      <c r="E8" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1193,6 +1396,9 @@
       <c r="D9" t="s">
         <v>161</v>
       </c>
+      <c r="E9" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1207,6 +1413,9 @@
       <c r="D10" t="s">
         <v>162</v>
       </c>
+      <c r="E10" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1221,6 +1430,9 @@
       <c r="D11" t="s">
         <v>174</v>
       </c>
+      <c r="E11" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1235,6 +1447,9 @@
       <c r="D12" t="s">
         <v>187</v>
       </c>
+      <c r="E12" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1249,6 +1464,9 @@
       <c r="D13" t="s">
         <v>196</v>
       </c>
+      <c r="E13" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1263,6 +1481,9 @@
       <c r="D14" t="s">
         <v>146</v>
       </c>
+      <c r="E14" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1277,6 +1498,9 @@
       <c r="D15" t="s">
         <v>188</v>
       </c>
+      <c r="E15" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1291,8 +1515,11 @@
       <c r="D16" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>127</v>
       </c>
@@ -1305,8 +1532,11 @@
       <c r="D17" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>127</v>
       </c>
@@ -1319,8 +1549,11 @@
       <c r="D18" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>127</v>
       </c>
@@ -1333,8 +1566,11 @@
       <c r="D19" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -1347,8 +1583,11 @@
       <c r="D20" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>127</v>
       </c>
@@ -1361,8 +1600,11 @@
       <c r="D21" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>127</v>
       </c>
@@ -1375,8 +1617,11 @@
       <c r="D22" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>127</v>
       </c>
@@ -1389,8 +1634,11 @@
       <c r="D23" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>127</v>
       </c>
@@ -1403,8 +1651,11 @@
       <c r="D24" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>127</v>
       </c>
@@ -1417,8 +1668,11 @@
       <c r="D25" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>127</v>
       </c>
@@ -1432,7 +1686,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>127</v>
       </c>
@@ -1446,7 +1700,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>127</v>
       </c>
@@ -1460,7 +1714,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>127</v>
       </c>
@@ -1473,8 +1727,11 @@
       <c r="D29" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>127</v>
       </c>
@@ -1488,7 +1745,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>127</v>
       </c>
@@ -1502,7 +1759,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>127</v>
       </c>
@@ -1516,7 +1773,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>127</v>
       </c>
@@ -1530,7 +1787,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>127</v>
       </c>
@@ -1544,7 +1801,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>127</v>
       </c>
@@ -1558,7 +1815,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>127</v>
       </c>
@@ -1572,7 +1829,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>127</v>
       </c>
@@ -1586,7 +1843,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>127</v>
       </c>
@@ -1599,8 +1856,11 @@
       <c r="D38" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>127</v>
       </c>
@@ -1614,7 +1874,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>127</v>
       </c>
@@ -1627,8 +1887,11 @@
       <c r="D40" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>127</v>
       </c>
@@ -1642,7 +1905,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>127</v>
       </c>
@@ -1656,7 +1919,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>127</v>
       </c>
@@ -1670,7 +1933,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>127</v>
       </c>
@@ -1683,8 +1946,11 @@
       <c r="D44" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>127</v>
       </c>
@@ -1698,7 +1964,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>127</v>
       </c>
@@ -1711,8 +1977,11 @@
       <c r="D46" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>127</v>
       </c>
@@ -1726,7 +1995,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>127</v>
       </c>
@@ -1740,7 +2009,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>127</v>
       </c>
@@ -1754,7 +2023,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>127</v>
       </c>
@@ -1767,8 +2036,11 @@
       <c r="D50" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>127</v>
       </c>
@@ -1782,7 +2054,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>127</v>
       </c>
@@ -1796,7 +2068,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>127</v>
       </c>
@@ -1810,7 +2082,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>127</v>
       </c>
@@ -1824,7 +2096,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>127</v>
       </c>
@@ -1838,7 +2110,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>127</v>
       </c>
@@ -1851,8 +2123,11 @@
       <c r="D56" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>127</v>
       </c>
@@ -1865,8 +2140,11 @@
       <c r="D57" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>127</v>
       </c>
@@ -1879,8 +2157,11 @@
       <c r="D58" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>127</v>
       </c>
@@ -1893,8 +2174,11 @@
       <c r="D59" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>127</v>
       </c>
@@ -1908,7 +2192,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>127</v>
       </c>
@@ -1921,8 +2205,11 @@
       <c r="D61" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>127</v>
       </c>
@@ -1935,8 +2222,11 @@
       <c r="D62" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>127</v>
       </c>
@@ -1950,7 +2240,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>127</v>
       </c>
@@ -1964,7 +2254,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>127</v>
       </c>
@@ -1977,8 +2267,11 @@
       <c r="D65" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>127</v>
       </c>
@@ -1991,8 +2284,11 @@
       <c r="D66" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>127</v>
       </c>
@@ -2005,8 +2301,11 @@
       <c r="D67" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>127</v>
       </c>
@@ -2020,7 +2319,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>127</v>
       </c>
@@ -2033,8 +2332,11 @@
       <c r="D69" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>127</v>
       </c>
@@ -2047,8 +2349,11 @@
       <c r="D70" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>127</v>
       </c>
@@ -2061,8 +2366,11 @@
       <c r="D71" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>127</v>
       </c>
@@ -2075,8 +2383,11 @@
       <c r="D72" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>127</v>
       </c>
@@ -2089,8 +2400,11 @@
       <c r="D73" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>127</v>
       </c>
@@ -2103,8 +2417,11 @@
       <c r="D74" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>127</v>
       </c>
@@ -2118,7 +2435,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>127</v>
       </c>
@@ -2132,7 +2449,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>127</v>
       </c>
@@ -2146,7 +2463,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>127</v>
       </c>
@@ -2159,8 +2476,11 @@
       <c r="D78" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>127</v>
       </c>
@@ -2174,7 +2494,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>127</v>
       </c>
@@ -2188,7 +2508,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>127</v>
       </c>
@@ -2202,7 +2522,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>127</v>
       </c>
@@ -2216,7 +2536,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>127</v>
       </c>
@@ -2230,7 +2550,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>127</v>
       </c>
@@ -2244,7 +2564,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>127</v>
       </c>
@@ -2258,7 +2578,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>127</v>
       </c>
@@ -2272,7 +2592,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>127</v>
       </c>
@@ -2286,7 +2606,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>127</v>
       </c>
@@ -2300,7 +2620,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>127</v>
       </c>
@@ -2314,7 +2634,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>127</v>
       </c>
@@ -2328,7 +2648,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>127</v>
       </c>
@@ -2342,7 +2662,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>127</v>
       </c>
@@ -2356,7 +2676,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>127</v>
       </c>
@@ -2370,7 +2690,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>127</v>
       </c>
@@ -2384,7 +2704,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>127</v>
       </c>
@@ -2398,7 +2718,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>127</v>
       </c>
@@ -2411,8 +2731,11 @@
       <c r="D96" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>127</v>
       </c>
@@ -2426,7 +2749,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>127</v>
       </c>
@@ -2440,7 +2763,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>127</v>
       </c>
@@ -2454,7 +2777,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>127</v>
       </c>
@@ -2468,7 +2791,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>127</v>
       </c>
@@ -2481,8 +2804,11 @@
       <c r="D101" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>127</v>
       </c>
@@ -2496,7 +2822,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>127</v>
       </c>
@@ -2509,8 +2835,11 @@
       <c r="D103" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>127</v>
       </c>
@@ -2524,7 +2853,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>127</v>
       </c>
@@ -2537,8 +2866,11 @@
       <c r="D105" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>127</v>
       </c>
@@ -2550,6 +2882,9 @@
       </c>
       <c r="D106" t="s">
         <v>215</v>
+      </c>
+      <c r="E106" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
